--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>450519.6048142376</v>
+        <v>448038.6849887791</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.813695076354</v>
       </c>
       <c r="C11" t="n">
-        <v>47.31994657844518</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579944</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104931</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830083</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302864</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>356.6107183493422</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,22 +1528,22 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>88.44202534652254</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292081</v>
       </c>
       <c r="S13" t="n">
-        <v>155.2818088393391</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184863</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494644</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y13" t="n">
         <v>191.6645067649683</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.813695076354</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851352</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>44.75640512426605</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579941</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>82.2676152010493</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830083</v>
       </c>
       <c r="W14" t="n">
-        <v>301.2093697640602</v>
+        <v>322.3208221302864</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.317792068927</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292079</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>242.0152705899746</v>
+        <v>259.2916916184863</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494644</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>158.4112056804054</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>239.1132486668485</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>194.7829385552826</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365929147</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>208.053360265414</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
@@ -2087,16 +2087,16 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>307.9637310891292</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>216.6406744237627</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
         <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>134.9383736358127</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411908</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2734363206861</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
         <v>291.3776085652885</v>
@@ -2324,7 +2324,7 @@
         <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359924</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245674</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290875</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074564</v>
+        <v>74.72018981249327</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085009</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721216</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330914</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860177</v>
+        <v>70.8597317086017</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432825</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206868</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
         <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
         <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448871</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
@@ -2804,7 +2804,7 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348612</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>133.1067657762844</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>196.6598613601167</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3560,16 +3560,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I40" t="n">
-        <v>50.95950582245128</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>170.2318734253262</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E43" t="n">
-        <v>99.7087482409157</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>42.20693826439435</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333692</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
         <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>110.5480262953171</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419018</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.254258673504</v>
+        <v>1142.041411855985</v>
       </c>
       <c r="C11" t="n">
-        <v>1454.456332836691</v>
+        <v>800.2709621752973</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.382701489664</v>
+        <v>469.1973308282705</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>469.1973308282705</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>469.1973308282705</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299101</v>
+        <v>81.31694793299084</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479258</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
         <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1861.662031477902</v>
+        <v>1501.449184660383</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>425.9561425154581</v>
+        <v>418.3126375609376</v>
       </c>
       <c r="C13" t="n">
-        <v>425.9561425154581</v>
+        <v>276.5685218927545</v>
       </c>
       <c r="D13" t="n">
-        <v>425.9561425154581</v>
+        <v>276.5685218927545</v>
       </c>
       <c r="E13" t="n">
-        <v>305.2351161927887</v>
+        <v>155.847495570085</v>
       </c>
       <c r="F13" t="n">
-        <v>185.537235954602</v>
+        <v>155.847495570085</v>
       </c>
       <c r="G13" t="n">
-        <v>185.537235954602</v>
+        <v>155.847495570085</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003744</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.923822070506</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402573</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.942556361062</v>
       </c>
       <c r="N13" t="n">
         <v>1451.001878188181</v>
@@ -5215,34 +5215,34 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075786</v>
       </c>
       <c r="S13" t="n">
-        <v>1921.013407116857</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1726.438858946107</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1464.528059331474</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1237.035638385311</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W13" t="n">
-        <v>974.8105356080741</v>
+        <v>967.1670306535534</v>
       </c>
       <c r="X13" t="n">
-        <v>774.0130519697805</v>
+        <v>766.3695470152599</v>
       </c>
       <c r="Y13" t="n">
-        <v>580.4125400859741</v>
+        <v>572.7690351314535</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1869.626603223583</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="C14" t="n">
-        <v>1527.856153542895</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="D14" t="n">
-        <v>1196.782522195868</v>
+        <v>1139.306993957415</v>
       </c>
       <c r="E14" t="n">
-        <v>838.1863368573472</v>
+        <v>780.7108086188948</v>
       </c>
       <c r="F14" t="n">
-        <v>454.3924993274633</v>
+        <v>396.916971089011</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>81.3169479329909</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395991</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.507220395991</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V14" t="n">
-        <v>3242.507220395991</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2938.255331745425</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X14" t="n">
-        <v>2591.981640744069</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>2229.034376027981</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064539</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.1355997018104</v>
+        <v>451.9018305756478</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3914840336272</v>
+        <v>310.1577149074647</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4669118810153</v>
+        <v>187.2331427548527</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201593</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.923822070506</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,34 +5452,34 @@
         <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162337</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.910032879533</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1441.41761193337</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>1179.192509156133</v>
+        <v>967.1670306535535</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.192509156133</v>
+        <v>766.3695470152601</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5919972723264</v>
+        <v>606.3582281461637</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1829.12888146835</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C17" t="n">
-        <v>1534.808064735735</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="D17" t="n">
-        <v>1251.184066336782</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>940.0375139463345</v>
+        <v>966.2289711446359</v>
       </c>
       <c r="F17" t="n">
-        <v>603.693309364524</v>
+        <v>629.8847665628253</v>
       </c>
       <c r="G17" t="n">
-        <v>263.2625594173174</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.956853344063</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3289.956853344063</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>3033.53566620829</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.408711145973</v>
+        <v>2445.183887219623</v>
       </c>
       <c r="X17" t="n">
-        <v>2456.58465309269</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y17" t="n">
-        <v>2141.087021324675</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872286</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.1960934060411</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,13 +5695,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729438</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U19" t="n">
         <v>1370.445531062878</v>
@@ -5710,13 +5710,13 @@
         <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454044</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096713</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809385</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>940.9592424104319</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344061</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.62080593608</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="V20" t="n">
-        <v>2760.903065353308</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2482.776110290991</v>
+        <v>2445.183887219622</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290991</v>
+        <v>2146.35982916634</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>1830.862197398325</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,37 +5844,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872286</v>
+        <v>632.1517731235541</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>537.8572904034443</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>462.3823511989056</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604103</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865763</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356247</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454044</v>
+        <v>885.3094166817299</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096713</v>
+        <v>739.1585377459968</v>
       </c>
     </row>
     <row r="23">
@@ -5972,46 +5972,46 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>916.9802179168073</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1368.014431165216</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1901.546335837141</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2448.325152895923</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2951.29762377526</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
@@ -6023,16 +6023,16 @@
         <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>575.987417377527</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937439</v>
+        <v>481.6929346574171</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.9466020782824</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881691</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.06173179633998</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6172,25 +6172,25 @@
         <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453176</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259231</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>829.1450609357028</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>682.9941819999697</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>289.2351327209245</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>943.9584648562241</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1394.992678104633</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1928.524582776558</v>
+        <v>1921.876785462655</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.30339983534</v>
+        <v>2468.655602521437</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>2971.628073400774</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6306,10 +6306,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,16 +6403,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6421,13 +6421,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6443,58 +6443,58 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>878.8992091819719</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1329.933422430381</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6689,49 +6689,49 @@
         <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398484</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668888</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K32" t="n">
-        <v>625.3777437664567</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L32" t="n">
-        <v>1076.411957014865</v>
+        <v>1119.741581677074</v>
       </c>
       <c r="M32" t="n">
-        <v>1609.94386168679</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2156.722678745572</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075027</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6850,58 +6850,58 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464988</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307346</v>
+        <v>581.825297830734</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960654</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7005,19 +7005,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
         <v>765.1517452158131</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1322.10716072584</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.68999068888</v>
+        <v>985.4928044205428</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908623</v>
+        <v>856.174688096369</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473322</v>
+        <v>635.3821089528388</v>
       </c>
     </row>
     <row r="38">
@@ -7157,25 +7157,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7184,40 +7184,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,7 +7257,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702857</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8117649162222</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D40" t="n">
-        <v>529.3665600777298</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E40" t="n">
-        <v>480.1249010691801</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F40" t="n">
-        <v>431.9063881451131</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G40" t="n">
-        <v>264.203551519832</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9863647376898</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1176.23853988366</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205427</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963688</v>
+        <v>903.3718743647055</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.053543526682</v>
+        <v>682.5792952211754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,25 +7394,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,34 +7424,34 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7494,7 +7494,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.0765132702858</v>
+        <v>500.9308303909356</v>
       </c>
       <c r="C43" t="n">
-        <v>482.1403303423789</v>
+        <v>331.9946474630287</v>
       </c>
       <c r="D43" t="n">
-        <v>332.0236909300431</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1884.661277114357</v>
       </c>
       <c r="S43" t="n">
-        <v>1744.449641246691</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1621.35446039006</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1274.909974457503</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>985.4928044205428</v>
+        <v>1032.689990688879</v>
       </c>
       <c r="X43" t="n">
-        <v>856.1746880963689</v>
+        <v>903.3718743647055</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.0535435266821</v>
+        <v>682.5792952211754</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7731,7 +7731,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127579</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>670.6422221586944</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>520.5255827463586</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>372.6124891639655</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398985</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X46" t="n">
-        <v>946.005145338841</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y46" t="n">
-        <v>823.8840007691542</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430635</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729014</v>
+        <v>184.4039433729013</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389611</v>
+        <v>191.494890938961</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333075</v>
+        <v>181.0856325333074</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830249</v>
+        <v>179.3553748830248</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383998</v>
+        <v>182.8301554383997</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586592</v>
+        <v>190.8908035586591</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266129</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,25 +8532,25 @@
         <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672279</v>
+        <v>105.9629718672278</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253599</v>
+        <v>104.1013981253598</v>
       </c>
       <c r="N9" t="n">
-        <v>92.3024655867772</v>
+        <v>92.30246558677709</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359742</v>
+        <v>106.882960835974</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798329</v>
+        <v>105.3113487798328</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615461</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
         <v>122.5080856662707</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0980055054511</v>
       </c>
       <c r="P23" t="n">
-        <v>15.66901280726984</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.40311602546458</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>336.8335818149096</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>277.8321087236472</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>21.74982042514705</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374163</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-7.958078640513122e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.740829702612245e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>291.0327986054359</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851352</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>2.707073719584798</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.6953264310858</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.3928429806717</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.567069904976336</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>339.2451739420608</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001939</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>21.11145236622637</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271155</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>17.27642102851183</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.25330108456285</v>
       </c>
     </row>
     <row r="17">
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>41.67450974811539</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>25.92954262631881</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.07135577741354382</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>37.21630084065316</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>905275.4364438289</v>
+        <v>905275.4364438287</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>984889.1913622416</v>
+        <v>984889.1913622415</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>984889.1913622415</v>
+        <v>984889.1913622414</v>
       </c>
     </row>
     <row r="9">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>430120.0778264451</v>
+      </c>
+      <c r="C2" t="n">
         <v>430120.077826445</v>
       </c>
-      <c r="C2" t="n">
-        <v>430120.0778264451</v>
-      </c>
       <c r="D2" t="n">
-        <v>430131.8016481218</v>
+        <v>430131.8016481219</v>
       </c>
       <c r="E2" t="n">
-        <v>383008.500475112</v>
+        <v>383008.5004751119</v>
       </c>
       <c r="F2" t="n">
-        <v>383008.500475112</v>
+        <v>383008.5004751121</v>
       </c>
       <c r="G2" t="n">
+        <v>417128.6811544317</v>
+      </c>
+      <c r="H2" t="n">
         <v>417128.6811544315</v>
       </c>
-      <c r="H2" t="n">
-        <v>417128.6811544313</v>
-      </c>
       <c r="I2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="K2" t="n">
         <v>431046.9291787489</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787489</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="M2" t="n">
         <v>431046.9291787485</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787485</v>
       </c>
       <c r="O2" t="n">
         <v>431046.9291787486</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552183</v>
+        <v>59764.55367552202</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487417</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983369</v>
+        <v>22821.46782983415</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487394</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475042</v>
+        <v>426120.6833475041</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863746</v>
+        <v>39414.21797863755</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863747</v>
+        <v>39414.21797863755</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007967</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007967</v>
+        <v>76442.37834007974</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602846</v>
+        <v>89331.33560602847</v>
       </c>
       <c r="J4" t="n">
         <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.5572993633</v>
+        <v>86909.55729936337</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936324</v>
       </c>
       <c r="M4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="N4" t="n">
+        <v>91573.95495316938</v>
+      </c>
+      <c r="O4" t="n">
+        <v>91573.95495316936</v>
+      </c>
+      <c r="P4" t="n">
         <v>91573.95495316939</v>
-      </c>
-      <c r="O4" t="n">
-        <v>91573.95495316939</v>
-      </c>
-      <c r="P4" t="n">
-        <v>91573.95495316941</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26485,10 +26485,10 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521485</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,13 +26500,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50532.14244594788</v>
+        <v>-50536.55602381588</v>
       </c>
       <c r="C6" t="n">
-        <v>-50532.14244594776</v>
+        <v>-50536.55602381594</v>
       </c>
       <c r="D6" t="n">
-        <v>-90902.34080677057</v>
+        <v>-90906.69855691648</v>
       </c>
       <c r="E6" t="n">
-        <v>-822214.180031985</v>
+        <v>-822442.9344543829</v>
       </c>
       <c r="F6" t="n">
-        <v>267024.792131648</v>
+        <v>266796.0377092496</v>
       </c>
       <c r="G6" t="n">
-        <v>222587.5503942628</v>
+        <v>222521.2730227185</v>
       </c>
       <c r="H6" t="n">
-        <v>260167.6596891367</v>
+        <v>260101.3823175931</v>
       </c>
       <c r="I6" t="n">
-        <v>233157.5974410444</v>
+        <v>233157.5974410441</v>
       </c>
       <c r="J6" t="n">
         <v>229349.9971827825</v>
@@ -26552,10 +26552,10 @@
         <v>217179.3209097054</v>
       </c>
       <c r="M6" t="n">
-        <v>54786.27692660483</v>
+        <v>54786.27692660499</v>
       </c>
       <c r="N6" t="n">
-        <v>256954.3769193295</v>
+        <v>256954.3769193293</v>
       </c>
       <c r="O6" t="n">
         <v>256954.3769193293</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="P2" t="n">
         <v>97.68472022810495</v>
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379053</v>
+        <v>69.78465283790553</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,7 +26765,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951251</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.7846528379053</v>
+        <v>69.78465283790553</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873727</v>
+        <v>85.82047987873761</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959705</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780177</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036573</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672114</v>
+        <v>84.22861846672113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987533</v>
+        <v>90.8382912698753</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519098</v>
+        <v>84.46220888519095</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990566</v>
+        <v>7.64903505099052</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317069</v>
+        <v>75.62456067317065</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712654</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.49558901075586</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075522</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075648</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075577</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075594</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075508</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571908</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>46.72521440565293</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,25 +30189,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>55.47778196371129</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I40" t="n">
-        <v>45.39291458738681</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371092</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E43" t="n">
-        <v>46.72521440565347</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.72521440565298</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>55.47778196371111</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,13 +30903,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="V46" t="n">
         <v>97.68472022810495</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413276</v>
+        <v>0.2805413179413285</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366622</v>
+        <v>2.873093772366631</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993304</v>
+        <v>10.81556915993308</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362278</v>
+        <v>23.81059368362286</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207918</v>
+        <v>35.6859076720793</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310261</v>
+        <v>44.27152403102624</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396518</v>
+        <v>49.26060069396534</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356598</v>
+        <v>50.05768871356614</v>
       </c>
       <c r="O8" t="n">
-        <v>47.2680559832869</v>
+        <v>47.26805598328706</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661037</v>
+        <v>40.3421921966105</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783656</v>
+        <v>30.29530624783666</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313194</v>
+        <v>17.62255356313199</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258801</v>
+        <v>6.39283528258803</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288162</v>
+        <v>1.228069619288166</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353062</v>
+        <v>0.02244330543530628</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796454</v>
+        <v>0.1501028381796458</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840259</v>
+        <v>1.449677410840264</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693931</v>
+        <v>5.168014384693948</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906904</v>
+        <v>14.18142647906909</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710528</v>
+        <v>24.23831663710536</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264625</v>
+        <v>32.59140791264635</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665838</v>
+        <v>38.0326357966585</v>
       </c>
       <c r="N9" t="n">
-        <v>39.0392464965561</v>
+        <v>39.03924649655622</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847027</v>
+        <v>35.71328360847038</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449737</v>
+        <v>28.66305863449746</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447543</v>
+        <v>19.1604956244755</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767809</v>
+        <v>9.319542882767839</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608762</v>
+        <v>2.788094384608771</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890089</v>
+        <v>0.6050197731890109</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345093</v>
+        <v>0.009875186722345126</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486817</v>
+        <v>0.1258411772486821</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811007</v>
+        <v>1.118842466811011</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078537</v>
+        <v>3.78438740307855</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481794</v>
+        <v>8.896971231481823</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489229</v>
+        <v>14.62045677489233</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477219</v>
+        <v>18.70915102477225</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908198</v>
+        <v>19.72617653908204</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115509</v>
+        <v>19.25713215115515</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875003</v>
+        <v>17.78707839875009</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287691</v>
+        <v>15.21991838287696</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.5374825785237</v>
+        <v>10.53748257852373</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381631</v>
+        <v>5.658276933381649</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233843</v>
+        <v>2.19306851623385</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625489</v>
+        <v>0.5376850300625505</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564463</v>
+        <v>0.006864064213564485</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138796</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33418,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33570,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33734,13 +33734,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34451,10 +34451,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019276</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573246</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019276</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573247</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806104</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.877217732237</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1510063936702</v>
       </c>
       <c r="P23" t="n">
-        <v>414.4309990266417</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.1901169941771</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>875.7546976451364</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340054</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>615.0233952790477</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>358.9411069805475</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>521.1072324560739</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597723</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37549,7 +37549,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830226</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882178</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38099,10 +38099,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
